--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H2">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N2">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q2">
-        <v>6.974634136392222</v>
+        <v>4.068968053902</v>
       </c>
       <c r="R2">
-        <v>62.77170722752999</v>
+        <v>36.620712485118</v>
       </c>
       <c r="S2">
-        <v>0.1844870484076153</v>
+        <v>0.1162575433787718</v>
       </c>
       <c r="T2">
-        <v>0.1844870484076153</v>
+        <v>0.1162575433787718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H3">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q3">
-        <v>1.907878614717778</v>
+        <v>0.8337496806906668</v>
       </c>
       <c r="R3">
-        <v>17.17090753246</v>
+        <v>7.503747126216001</v>
       </c>
       <c r="S3">
-        <v>0.05046557102009674</v>
+        <v>0.02382168854262202</v>
       </c>
       <c r="T3">
-        <v>0.05046557102009673</v>
+        <v>0.02382168854262202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H4">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N4">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O4">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P4">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q4">
-        <v>5.930554176284999</v>
+        <v>3.976326215687333</v>
       </c>
       <c r="R4">
-        <v>53.37498758656499</v>
+        <v>35.786935941186</v>
       </c>
       <c r="S4">
-        <v>0.1568699395564608</v>
+        <v>0.1136106038151636</v>
       </c>
       <c r="T4">
-        <v>0.1568699395564608</v>
+        <v>0.1136106038151636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H5">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N5">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q5">
-        <v>3.236014539576111</v>
+        <v>1.714782616604667</v>
       </c>
       <c r="R5">
-        <v>29.124130856185</v>
+        <v>15.433043549442</v>
       </c>
       <c r="S5">
-        <v>0.08559628495715436</v>
+        <v>0.04899434249524394</v>
       </c>
       <c r="T5">
-        <v>0.08559628495715436</v>
+        <v>0.04899434249524394</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N6">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q6">
-        <v>2.036220832546444</v>
+        <v>2.718333798347</v>
       </c>
       <c r="R6">
-        <v>18.325987492918</v>
+        <v>24.465004185123</v>
       </c>
       <c r="S6">
-        <v>0.05386036944109972</v>
+        <v>0.07766755730024691</v>
       </c>
       <c r="T6">
-        <v>0.05386036944109973</v>
+        <v>0.07766755730024691</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.055252</v>
       </c>
       <c r="O7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q7">
         <v>0.5569987049195556</v>
@@ -883,10 +883,10 @@
         <v>5.012988344276</v>
       </c>
       <c r="S7">
-        <v>0.01473325267361298</v>
+        <v>0.01591442848439344</v>
       </c>
       <c r="T7">
-        <v>0.01473325267361298</v>
+        <v>0.01591442848439344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N8">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O8">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P8">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q8">
-        <v>1.731405221571</v>
+        <v>2.656443059313444</v>
       </c>
       <c r="R8">
-        <v>15.582646994139</v>
+        <v>23.907987533821</v>
       </c>
       <c r="S8">
-        <v>0.04579764797388994</v>
+        <v>0.07589923049536138</v>
       </c>
       <c r="T8">
-        <v>0.04579764797388996</v>
+        <v>0.07589923049536138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N9">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q9">
-        <v>0.9447434935012221</v>
+        <v>1.145585682115222</v>
       </c>
       <c r="R9">
-        <v>8.502691441510999</v>
+        <v>10.310271139037</v>
       </c>
       <c r="S9">
-        <v>0.02498954571809214</v>
+        <v>0.03273138922899441</v>
       </c>
       <c r="T9">
-        <v>0.02498954571809215</v>
+        <v>0.03273138922899441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H10">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N10">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q10">
-        <v>4.741692320802889</v>
+        <v>3.925485284089999</v>
       </c>
       <c r="R10">
-        <v>42.675230887226</v>
+        <v>35.32936755680999</v>
       </c>
       <c r="S10">
-        <v>0.1254231840144205</v>
+        <v>0.1121579893605168</v>
       </c>
       <c r="T10">
-        <v>0.1254231840144205</v>
+        <v>0.1121579893605168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H11">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.055252</v>
       </c>
       <c r="O11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q11">
-        <v>1.297067803059111</v>
+        <v>0.8043494219688889</v>
       </c>
       <c r="R11">
-        <v>11.673610227532</v>
+        <v>7.239144797719999</v>
       </c>
       <c r="S11">
-        <v>0.03430892658904464</v>
+        <v>0.02298167166158103</v>
       </c>
       <c r="T11">
-        <v>0.03430892658904464</v>
+        <v>0.02298167166158102</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H12">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N12">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O12">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P12">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q12">
-        <v>4.031876460596999</v>
+        <v>3.83611024654111</v>
       </c>
       <c r="R12">
-        <v>36.286888145373</v>
+        <v>34.52499221886999</v>
       </c>
       <c r="S12">
-        <v>0.1066477428369375</v>
+        <v>0.1096043880131543</v>
       </c>
       <c r="T12">
-        <v>0.1066477428369375</v>
+        <v>0.1096043880131542</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H13">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N13">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O13">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P13">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q13">
-        <v>2.199998593797444</v>
+        <v>1.654314764265555</v>
       </c>
       <c r="R13">
-        <v>19.799987344177</v>
+        <v>14.88883287839</v>
       </c>
       <c r="S13">
-        <v>0.05819247850619735</v>
+        <v>0.04726667005515338</v>
       </c>
       <c r="T13">
-        <v>0.05819247850619735</v>
+        <v>0.04726667005515337</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H14">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N14">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O14">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P14">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q14">
-        <v>0.8564993050957779</v>
+        <v>2.730162137296</v>
       </c>
       <c r="R14">
-        <v>7.708493745862</v>
+        <v>24.571459235664</v>
       </c>
       <c r="S14">
-        <v>0.02265538602746398</v>
+        <v>0.07800551365926613</v>
       </c>
       <c r="T14">
-        <v>0.02265538602746398</v>
+        <v>0.07800551365926611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H15">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.055252</v>
       </c>
       <c r="O15">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P15">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q15">
-        <v>0.2342913872982223</v>
+        <v>0.5594223842631112</v>
       </c>
       <c r="R15">
-        <v>2.108622485684</v>
+        <v>5.034801458368</v>
       </c>
       <c r="S15">
-        <v>0.006197275106437751</v>
+        <v>0.01598367724788507</v>
       </c>
       <c r="T15">
-        <v>0.00619727510643775</v>
+        <v>0.01598367724788506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H16">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N16">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O16">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P16">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q16">
-        <v>0.7282841553389999</v>
+        <v>2.668002091880889</v>
       </c>
       <c r="R16">
-        <v>6.554557398051</v>
+        <v>24.012018826928</v>
       </c>
       <c r="S16">
-        <v>0.01926394870226488</v>
+        <v>0.07622949229941699</v>
       </c>
       <c r="T16">
-        <v>0.01926394870226489</v>
+        <v>0.07622949229941697</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H17">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N17">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O17">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P17">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q17">
-        <v>0.3973891891998889</v>
+        <v>1.150570491468444</v>
       </c>
       <c r="R17">
-        <v>3.576502702799</v>
+        <v>10.355134423216</v>
       </c>
       <c r="S17">
-        <v>0.01051139846921142</v>
+        <v>0.03287381396222903</v>
       </c>
       <c r="T17">
-        <v>0.01051139846921142</v>
+        <v>0.03287381396222902</v>
       </c>
     </row>
   </sheetData>
